--- a/ACG/ACG/stage3.xlsx
+++ b/ACG/ACG/stage3.xlsx
@@ -109,7 +109,455 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="112">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -724,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CQ11" sqref="CQ11"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CV14" sqref="CU14:CV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3480,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -3956,46 +4404,46 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BV11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BW11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BY11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BZ11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CA11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CB11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CD11" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CE11" s="1">
         <v>0</v>
@@ -4300,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="CE12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CF12" s="1">
         <v>0</v>
@@ -4348,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="CU12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CV12" s="1">
         <v>0</v>
@@ -4560,46 +5008,46 @@
         <v>0</v>
       </c>
       <c r="BQ13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BR13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BS13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BT13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BU13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BV13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BW13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BX13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BY13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BZ13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CA13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CB13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CC13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CD13" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CE13" s="1">
         <v>0</v>
@@ -5206,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="CE15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CF15" s="1">
         <v>0</v>
@@ -5254,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="CU15" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CV15" s="1">
         <v>0</v>
@@ -6895,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -6907,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="1">
         <v>0</v>
@@ -6916,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="AW21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="1">
         <v>0</v>
@@ -7499,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -7511,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AU23" s="1">
         <v>0</v>
@@ -7523,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="AX23" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY23" s="1">
         <v>0</v>
@@ -7981,52 +8429,52 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
       <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="11" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="6" operator="equal">
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="5" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8185,15 +8633,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{223C1C92-5C9B-42FA-BB9E-45821F6E8ECD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
